--- a/backend/src/Templates/cotizacion_plantilla.xlsx
+++ b/backend/src/Templates/cotizacion_plantilla.xlsx
@@ -211,7 +211,7 @@
     <t xml:space="preserve">{{forma_pago}}</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajos Diurnos </t>
+    <t xml:space="preserve">{{otros}}</t>
   </si>
   <si>
     <t xml:space="preserve">Cantidad</t>
@@ -279,7 +279,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1.- Los precios </t>
+      <t xml:space="preserve">1.- Los precios</t>
     </r>
     <r>
       <rPr>
@@ -289,7 +289,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">No</t>
+      <t xml:space="preserve"> {{tiene_igv_2}} </t>
     </r>
     <r>
       <rPr>
@@ -298,7 +298,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Incluyen IGV</t>
+      <t xml:space="preserve">Incluyen IGV</t>
     </r>
   </si>
   <si>
@@ -1266,7 +1266,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1514,9 +1514,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1386000</xdr:rowOff>
+      <xdr:rowOff>1385640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1530,7 +1530,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="91440"/>
-          <a:ext cx="10590480" cy="1294560"/>
+          <a:ext cx="10590120" cy="1294200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,9 +1552,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
+      <xdr:colOff>79200</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1446840</xdr:rowOff>
+      <xdr:rowOff>1446480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1564,7 +1564,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7388640" y="674280"/>
-          <a:ext cx="3121560" cy="772560"/>
+          <a:ext cx="3121200" cy="772200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,9 +1619,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>281160</xdr:colOff>
+      <xdr:colOff>280800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1132920</xdr:rowOff>
+      <xdr:rowOff>1132560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1631,7 +1631,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="152280" y="381600"/>
-          <a:ext cx="5918760" cy="751320"/>
+          <a:ext cx="5918400" cy="750960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1708,9 +1708,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
+      <xdr:colOff>321120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>3240</xdr:rowOff>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1724,7 +1724,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4614120" y="0"/>
-          <a:ext cx="1497240" cy="1451160"/>
+          <a:ext cx="1496880" cy="1450800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1749,9 +1749,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>157320</xdr:colOff>
+      <xdr:colOff>156960</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>253080</xdr:rowOff>
+      <xdr:rowOff>252720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1765,7 +1765,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14714280"/>
-          <a:ext cx="10587960" cy="933120"/>
+          <a:ext cx="10587600" cy="932760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1787,9 +1787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>175320</xdr:rowOff>
+      <xdr:rowOff>174960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1799,7 +1799,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="14640840"/>
-          <a:ext cx="10591920" cy="928800"/>
+          <a:ext cx="10591560" cy="928440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1953,9 +1953,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4285440</xdr:colOff>
+      <xdr:colOff>4285080</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1969,7 +1969,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2679480" y="12562200"/>
-          <a:ext cx="2317320" cy="1436040"/>
+          <a:ext cx="2316960" cy="1435680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1991,9 +1991,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>969120</xdr:colOff>
+      <xdr:colOff>968760</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>307800</xdr:rowOff>
+      <xdr:rowOff>307440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2007,7 +2007,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5848200" y="12736440"/>
-          <a:ext cx="2128680" cy="976680"/>
+          <a:ext cx="2128320" cy="976320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2225,8 +2225,8 @@
   </sheetPr>
   <dimension ref="B1:H39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/backend/src/Templates/cotizacion_plantilla.xlsx
+++ b/backend/src/Templates/cotizacion_plantilla.xlsx
@@ -8,12 +8,16 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Presupuesto" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Presupuesto" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm.Print_Area" vbProcedure="false">Sheet2!$A$1:$H$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm.Print_Area" vbProcedure="false">Sheet3!$A$1:$H$50</definedName>
     <definedName function="false" hidden="false" name="Tax_Rate" vbProcedure="false">Presupuesto!$F$22</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Area" vbProcedure="false">Presupuesto!$A$1:$H$48</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="Print_Titles" vbProcedure="false">Presupuesto!$17:$17</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="Print_Area" vbProcedure="false">Presupuesto!$A$1:$H$48</definedName>
+    <definedName function="false" hidden="false" localSheetId="2" name="Print_Titles" vbProcedure="false">Presupuesto!$17:$17</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="73">
   <si>
     <t xml:space="preserve">   </t>
   </si>
@@ -36,7 +40,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DIGESA - </t>
     </r>
@@ -45,7 +48,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Constancia de Habilitacion: N° {{digesa_habilitacion}}</t>
     </r>
@@ -63,7 +65,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Dirección: </t>
     </r>
@@ -72,7 +73,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{direccion_perucontrol}}</t>
     </r>
@@ -90,7 +90,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Ruc: </t>
     </r>
@@ -99,7 +98,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{ruc_perucontrol}}</t>
     </r>
@@ -117,7 +115,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Celulares: </t>
     </r>
@@ -126,7 +123,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{celulares_perucontrol}}</t>
     </r>
@@ -144,7 +140,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Gerente  y Asesor Técnico: </t>
     </r>
@@ -153,7 +148,6 @@
         <sz val="16"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{gerente_perucontrol}}</t>
     </r>
@@ -277,7 +271,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1.- Los precios</t>
     </r>
@@ -287,7 +280,6 @@
         <color rgb="FFFF0000"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> {{tiene_igv_2}} </t>
     </r>
@@ -296,7 +288,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Incluyen IGV</t>
     </r>
@@ -308,7 +299,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2.- Forma de Pago: </t>
     </r>
@@ -317,7 +307,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{forma_pago}}</t>
     </r>
@@ -329,7 +318,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3.- Disponibilidad: </t>
     </r>
@@ -338,7 +326,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{disponibilidad}}</t>
     </r>
@@ -350,7 +337,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4.- Válidez de la Propuesta:  </t>
     </r>
@@ -359,7 +345,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{validez_propuesta}}</t>
     </r>
@@ -371,7 +356,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5.- Hora: </t>
     </r>
@@ -380,7 +364,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{hora}}</t>
     </r>
@@ -392,7 +375,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6.- </t>
     </r>
@@ -401,7 +383,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{custom_6}}</t>
     </r>
@@ -413,7 +394,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7.- Ambientes a Tratar: </t>
     </r>
@@ -422,7 +402,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">{{ambientes_a_tratar}}</t>
     </r>
@@ -436,7 +415,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9.- Todos nuestros productos cuentan con MDSD, Ficha Tecnica y Resolucion Directoral emitida por </t>
     </r>
@@ -446,7 +424,6 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">DIGESA</t>
     </r>
@@ -455,13 +432,275 @@
         <sz val="14"/>
         <rFont val="GeoSlab703 MdCn BT"/>
         <family val="0"/>
-        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">.</t>
     </r>
   </si>
   <si>
     <t xml:space="preserve">{{custom_10}}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">DIGESA - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Constancia de Habilitacion: N° {{digesa_habilitacion}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Dirección: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{direccion_perucontrol}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Ruc: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{ruc_perucontrol}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Celulares: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{celulares_perucontrol}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Gerente  y Asesor Técnico: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{gerente_perucontrol}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">1.- Los precios</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> {{tiene_igv_2}} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Incluyen IGV</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">2.- Forma de Pago: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{forma_pago}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">3.- Disponibilidad: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{disponibilidad}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">4.- Válidez de la Propuesta:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{validez_propuesta}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">5.- Hora: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{hora}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">6.- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{custom_6}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">7.- Ambientes a Tratar: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">{{ambientes_a_tratar}}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">9.- Todos nuestros productos cuentan con MDSD, Ficha Tecnica y Resolucion Directoral emitida por </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">DIGESA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="GeoSlab703 MdCn BT"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -476,13 +715,12 @@
     <numFmt numFmtId="168" formatCode="&quot;S/&quot;#,##0.00;&quot;-S/&quot;#,##0.00"/>
     <numFmt numFmtId="169" formatCode="&quot;S/&quot;#,##0.00;[RED]&quot;S/&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="61">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Franklin Gothic Book"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -504,26 +742,29 @@
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="16"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="16"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -531,7 +772,6 @@
       <color theme="5"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -539,90 +779,79 @@
       <color theme="6" tint="-0.5"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11.35"/>
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="5"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -630,15 +859,13 @@
       <color theme="5"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -646,29 +873,36 @@
       <color theme="5"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
-    </font>
-    <font>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
     </font>
     <font>
       <b val="true"/>
@@ -676,7 +910,6 @@
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -684,7 +917,6 @@
       <color theme="1"/>
       <name val="GeoSlab703 MdCn BT"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
@@ -734,6 +966,128 @@
       <sz val="14"/>
       <color theme="0"/>
       <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color theme="6" tint="-0.5"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFEEEEEE"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="5"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color theme="5"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="8"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="7"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="22"/>
+      <color theme="0"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="GeoSlab703 MdCn BT"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
       <family val="0"/>
     </font>
   </fonts>
@@ -1049,7 +1403,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="148">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1062,333 +1416,585 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="3" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="21" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="21" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="24" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="47" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="1" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="3" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="3" borderId="17" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="3" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="20" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="20" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="48" fillId="3" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="48" fillId="0" borderId="6" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="48" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="48" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="169" fontId="51" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="20" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="169" fontId="23" fillId="2" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -1514,13 +2120,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>159120</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1385640</xdr:rowOff>
+      <xdr:rowOff>1385280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Imagen 2" descr="Banner abstracto"/>
+        <xdr:cNvPr id="0" name="Imagen 9" descr="Banner abstracto"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1530,7 +2136,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="91440"/>
-          <a:ext cx="10590120" cy="1294200"/>
+          <a:ext cx="10589760" cy="1293840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1552,25 +2158,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>79200</xdr:colOff>
+      <xdr:colOff>78840</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1446480</xdr:rowOff>
+      <xdr:rowOff>1446120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1" name="Cuadro de texto 1"/>
+        <xdr:cNvPr id="1" name="Cuadro de texto 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7388640" y="674280"/>
-          <a:ext cx="3121200" cy="772200"/>
+          <a:ext cx="3120840" cy="771840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="9360">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1581,7 +2187,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1619,25 +2225,25 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>280800</xdr:colOff>
+      <xdr:colOff>280440</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1132560</xdr:rowOff>
+      <xdr:rowOff>1132200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Cuadro de texto 2"/>
+        <xdr:cNvPr id="2" name="Cuadro de texto 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="152280" y="381600"/>
-          <a:ext cx="5918400" cy="750960"/>
+          <a:ext cx="5918040" cy="750600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="9360">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1648,7 +2254,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="b">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="b">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1708,13 +2314,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>320760</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 4" descr=""/>
+        <xdr:cNvPr id="3" name="Imagen 10" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1724,7 +2330,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="4614120" y="0"/>
-          <a:ext cx="1496880" cy="1450800"/>
+          <a:ext cx="1496520" cy="1450440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1744,18 +2350,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>314280</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>80280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>156960</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>252720</xdr:rowOff>
+      <xdr:colOff>156600</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>136440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 5" descr="Banner abstracto"/>
+        <xdr:cNvPr id="4" name="Imagen 11" descr="Banner abstracto"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1764,8 +2370,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14714280"/>
-          <a:ext cx="10587600" cy="932760"/>
+          <a:off x="0" y="13874400"/>
+          <a:ext cx="10587240" cy="932400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1782,30 +2388,30 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>240840</xdr:rowOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>41400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:colOff>720</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>174960</xdr:rowOff>
+      <xdr:rowOff>91800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Cuadro de texto 1"/>
+        <xdr:cNvPr id="5" name="Cuadro de texto 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="14640840"/>
-          <a:ext cx="10591560" cy="928440"/>
+          <a:off x="0" y="13835520"/>
+          <a:ext cx="10591200" cy="401040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln w="9525">
+        <a:ln w="9360">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -1816,7 +2422,1003 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr horzOverflow="clip" vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1100" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>Si desea discutir alguno de los elementos de esta proforma o si necesita alguna otra información, no dude en llamarme. Gracias</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="2400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Franklin Gothic Book"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>Lic. Isabel Garavito S. 986951290 </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>Email: servicios@perucontrol.com </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="1" i="1" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>¡Gracias por hacer negocios con nosotros!</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1400" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1968120</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4284720</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>58680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2679480" y="12417480"/>
+          <a:ext cx="2316600" cy="1435320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>58320</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>968400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>125280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848200" y="12592800"/>
+          <a:ext cx="2127960" cy="975960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>117360</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>982800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Imagen 1" descr="Banner abstracto"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="91440"/>
+          <a:ext cx="10589760" cy="891360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>414360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>730800</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>809280</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Cuadro de texto 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7078680" y="414360"/>
+          <a:ext cx="3002040" cy="394920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="es" sz="1800" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>COTIZACION/PROPUESTA</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1800" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>170640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>186840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>799560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Cuadro de texto 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="142200" y="170640"/>
+          <a:ext cx="5829480" cy="628920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="b">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="es" sz="2200" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>PERUCONTROL.COM E.I.R.L.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2200" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="es" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>ES CONFIANZA Y CALIDAD</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2689200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>29520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3673440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>983160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3401640" y="29520"/>
+          <a:ext cx="984240" cy="953640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="112680"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>302760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>114840</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>105120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 6" descr="Banner abstracto"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9464400"/>
+          <a:ext cx="10587240" cy="621720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>298800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>97200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Cuadro de texto 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="9460440"/>
+          <a:ext cx="10633320" cy="942840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="900" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>Si desea discutir alguno de los elementos de esta proforma o si necesita alguna otra información, no dude en llamarme. Gracias</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="900" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="Franklin Gothic Book"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="900" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>Lic. Isabel Garavito S. 986951290 </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>Email: servicios@perucontrol.com </a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1000" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>840240</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2403360</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>181440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Imagen 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552680" y="8374680"/>
+          <a:ext cx="1563120" cy="968400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3586320</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>9360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>48600</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>255240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Image 2" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4298760" y="8381880"/>
+          <a:ext cx="1534680" cy="703800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>159120</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1385280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Imagen 2" descr="Banner abstracto"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="91440"/>
+          <a:ext cx="10589760" cy="1293840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>380880</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>674280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>78840</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1446120</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Cuadro de texto 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7388640" y="674280"/>
+          <a:ext cx="3120840" cy="771840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="r">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="es" sz="2400" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>COTIZACION/PROPUESTA</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="2400" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152280</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>381600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>280440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1132200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Cuadro de texto 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="152280" y="381600"/>
+          <a:ext cx="5918040" cy="750600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="b">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="es" sz="3000" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>PERUCONTROL.COM E.I.R.L.</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="3000" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr>
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+          </a:pPr>
+          <a:r>
+            <a:rPr b="0" lang="es" sz="1200" strike="noStrike" u="none">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:uFillTx/>
+              <a:latin typeface="GeoSlab703 MdCn BT"/>
+              <a:ea typeface="Arial"/>
+            </a:rPr>
+            <a:t>ES CONFIANZA Y CALIDAD</a:t>
+          </a:r>
+          <a:endParaRPr b="0" lang="en-US" sz="1200" strike="noStrike" u="none">
+            <a:uFillTx/>
+            <a:latin typeface="Times New Roman"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3902760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4614120" y="0"/>
+          <a:ext cx="1496520" cy="1450440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst>
+          <a:softEdge rad="112680"/>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>151920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>89640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Imagen 5" descr="Banner abstracto"/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13869720"/>
+          <a:ext cx="10587240" cy="932400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>78480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>174600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Cuadro de texto 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="13796280"/>
+          <a:ext cx="10591200" cy="759240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9360">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
+        <a:fontRef idx="minor"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -1953,13 +3555,13 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>4285080</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:colOff>4284720</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>110880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Imagen 8" descr=""/>
+        <xdr:cNvPr id="22" name="Imagen 8" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1968,8 +3570,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2679480" y="12562200"/>
-          <a:ext cx="2316960" cy="1435680"/>
+          <a:off x="2679480" y="12393360"/>
+          <a:ext cx="2316600" cy="1435320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1986,18 +3588,18 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>58320</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>325440</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>162720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>968760</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>307440</xdr:rowOff>
+      <xdr:colOff>968400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>150840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Image 1" descr=""/>
+        <xdr:cNvPr id="23" name="Image 1" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2006,8 +3608,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5848200" y="12736440"/>
-          <a:ext cx="2128320" cy="976320"/>
+          <a:off x="5848200" y="12567600"/>
+          <a:ext cx="2127960" cy="975960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2031,7 +3633,7 @@
     <tableColumn id="3" name="TRABAJOS {{frecuencia_servicio}}"/>
     <tableColumn id="4" name="Costo por Servicio"/>
     <tableColumn id="5" name="¿Se le aplican impuestos?"/>
-    <tableColumn id="6" name="Importe&#10;Total" totalsRowFunction="count"/>
+    <tableColumn id="6" name="Importe&#10;Total"/>
   </tableColumns>
 </table>
 </file>
@@ -2043,7 +3645,7 @@
     <tableColumn id="2" name="CTA. CTE-SOLES"/>
     <tableColumn id="3" name="Banco de la Nación&#10; ( Detracciones)"/>
     <tableColumn id="4" name="Garantía"/>
-    <tableColumn id="5" name="Condiciones de&#10; Pago" totalsRowFunction="count"/>
+    <tableColumn id="5" name="Condiciones de&#10; Pago"/>
     <tableColumn id="6" name="OTROS"/>
   </tableColumns>
 </table>
@@ -2090,16 +3692,16 @@
         <a:srgbClr val="00578b"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Business Templates Font Set">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Franklin Gothic Book" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Franklin Gothic Book" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -2107,64 +3709,25 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="67000"/>
-                <a:lumMod val="110000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="73000"/>
-                <a:lumMod val="105000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="81000"/>
-                <a:lumMod val="105000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="94000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:shade val="100000"/>
-                <a:lumMod val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="78000"/>
-                <a:lumMod val="99000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:prstDash val="solid"/>
+          <a:miter/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -2183,35 +3746,11 @@
           <a:schemeClr val="phClr"/>
         </a:solidFill>
         <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-          </a:schemeClr>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
-        </a:gradFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
@@ -2223,10 +3762,1298 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:H39"/>
+  <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B26" activeCellId="0" sqref="B26"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="6.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="63.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="114" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
+    </row>
+    <row r="11" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+    </row>
+    <row r="12" customFormat="false" ht="17.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20"/>
+      <c r="B12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20"/>
+      <c r="B13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24"/>
+      <c r="B14" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="46.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24"/>
+      <c r="B15" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="17" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="46"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="48"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43"/>
+      <c r="B19" s="50" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="66"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="69"/>
+    </row>
+    <row r="24" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="71"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="72"/>
+      <c r="C25" s="72"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="73" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="75" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="75"/>
+      <c r="D27" s="75"/>
+      <c r="E27" s="74"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="B28" s="75" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="75"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="76" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="77"/>
+      <c r="D29" s="77"/>
+      <c r="E29" s="78"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="79" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="79"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" s="79"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B32" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="79"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="8"/>
+    </row>
+    <row r="33" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B33" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+    </row>
+    <row r="34" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B34" s="81" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+    </row>
+    <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B35" s="80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+    </row>
+    <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+    </row>
+    <row r="38" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C38" s="83"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+    </row>
+    <row r="39" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="E39" s="85"/>
+      <c r="F39" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:F35"/>
+    <mergeCell ref="B36:D36"/>
+  </mergeCells>
+  <dataValidations count="22">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="&#10;Cree una oferta con el cálculo de impuestos en esta hoja de cálculo. Escriba los detalles de la empresa, el cliente, el presupuesto, el envío y el producto. El total a pagar se calcula automáticamente." promptTitle="Plantilla de presupuesto" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la dirección completa de la empresa en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el teléfono y los datos de contacto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre del cliente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B8" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la fecha de finalización del presupuesto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F8" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre de la persona que lo ha preparado en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F9" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba comentarios o instrucciones especiales en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:E11 B12:B13 D13:E13" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre del vendedor en la celda inferior" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el número de pedido de compra en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la fecha de envío en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el puerto de FOB en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba las condiciones del presupuesto en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F14:G14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la cantidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la descripción en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17:D17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el precio por unidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba Sí para los elementos gravables en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El importe se calcula automáticamente en esta columna, debajo de este encabezado, el subtotal se calcula automáticamente al final de la tabla" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F18 F20" type="list">
+      <formula1>"Sí,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el tipo impositivo en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E22:F22" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el tipo impositivo en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G22" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El total a pagar se calcula automáticamente en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E23:F23" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El total a pagar se calcula automáticamente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G23" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H45"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A34" activeCellId="0" sqref="A1:H50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="1.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="7.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="63.4"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.81"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="16.04"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="14.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="86.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="86" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="90" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="91"/>
+      <c r="G3" s="89" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="87" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="86" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="90" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="88"/>
+      <c r="G5" s="93" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="1.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="94" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="95" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="96"/>
+      <c r="F11" s="96"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="20"/>
+      <c r="B12" s="96" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="96"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+    </row>
+    <row r="13" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="20"/>
+      <c r="B13" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+    </row>
+    <row r="14" customFormat="false" ht="28.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="24"/>
+      <c r="B14" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="100" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="102" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="103" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="104" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="24"/>
+    </row>
+    <row r="15" customFormat="false" ht="31.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="24"/>
+      <c r="B15" s="105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="106" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="107" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="108" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="110" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="24"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="37"/>
+      <c r="B17" s="111" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="112" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="113" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="112" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="114" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="115" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="37"/>
+    </row>
+    <row r="18" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="43"/>
+      <c r="B18" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="118"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="120"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="43"/>
+    </row>
+    <row r="19" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="43"/>
+      <c r="B19" s="122" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="124" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="126" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="127" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" customFormat="false" ht="25.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="43"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="129"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="43"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="G21" s="133" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="43"/>
+      <c r="B22" s="65"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="132" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="134"/>
+      <c r="H22" s="43"/>
+    </row>
+    <row r="23" customFormat="false" ht="36" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1"/>
+      <c r="B23" s="67"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="135" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="136"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="137" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="138"/>
+      <c r="D24" s="139"/>
+      <c r="E24" s="139"/>
+      <c r="F24" s="139"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="140" t="s">
+        <v>65</v>
+      </c>
+      <c r="C25" s="140"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="139"/>
+      <c r="F25" s="139"/>
+      <c r="G25" s="139"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="141" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="141"/>
+      <c r="D26" s="141"/>
+      <c r="E26" s="139"/>
+      <c r="F26" s="139"/>
+      <c r="G26" s="139"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="141" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="141"/>
+      <c r="D27" s="141"/>
+      <c r="E27" s="139"/>
+      <c r="F27" s="139"/>
+      <c r="G27" s="139"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="B28" s="142" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="143"/>
+      <c r="D28" s="143"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="145" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="145"/>
+      <c r="D29" s="145"/>
+      <c r="E29" s="145"/>
+      <c r="F29" s="145"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="145" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="145"/>
+      <c r="D30" s="145"/>
+      <c r="E30" s="145"/>
+      <c r="F30" s="145"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1"/>
+      <c r="B31" s="145" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="145"/>
+      <c r="D31" s="145"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="145"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1"/>
+      <c r="B32" s="146" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="146"/>
+      <c r="D32" s="146"/>
+      <c r="E32" s="146"/>
+      <c r="F32" s="146"/>
+      <c r="G32" s="146"/>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="1"/>
+      <c r="B33" s="147" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1"/>
+      <c r="B34" s="146" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="146"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="146"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="1"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="B34:F34"/>
+    <mergeCell ref="B35:D35"/>
+  </mergeCells>
+  <dataValidations count="22">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="&#10;Cree una oferta con el cálculo de impuestos en esta hoja de cálculo. Escriba los detalles de la empresa, el cliente, el presupuesto, el envío y el producto. El total a pagar se calcula automáticamente." promptTitle="Plantilla de presupuesto" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la dirección completa de la empresa en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el teléfono y los datos de contacto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre del cliente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B8" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la fecha de finalización del presupuesto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F8" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre de la persona que lo ha preparado en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F9" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba comentarios o instrucciones especiales en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:E11 B12:B13 D13:E13" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre del vendedor en la celda inferior" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el número de pedido de compra en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la fecha de envío en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el puerto de FOB en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba las condiciones del presupuesto en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F14:G14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la cantidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la descripción en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17:D17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el precio por unidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba Sí para los elementos gravables en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El importe se calcula automáticamente en esta columna, debajo de este encabezado, el subtotal se calcula automáticamente al final de la tabla" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F18 F20" type="list">
+      <formula1>"Sí,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el tipo impositivo en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E22:F22" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el tipo impositivo en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G22" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El total a pagar se calcula automáticamente en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E23:F23" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El total a pagar se calcula automáticamente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G23" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="65" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A47" activeCellId="0" sqref="A1:H50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.78125" defaultRowHeight="26.1" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2410,6 +5237,7 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" s="37" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B17" s="38" t="s">
         <v>31</v>
@@ -2563,7 +5391,8 @@
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
     </row>
-    <row r="31" s="8" customFormat="true" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
       <c r="B31" s="79" t="s">
         <v>55</v>
       </c>
@@ -2571,6 +5400,8 @@
       <c r="D31" s="79"/>
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" customFormat="false" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B32" s="79" t="s">
@@ -2593,13 +5424,13 @@
       <c r="G33" s="80"/>
     </row>
     <row r="34" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="80"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
     </row>
     <row r="35" customFormat="false" ht="24" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B35" s="80" t="s">
@@ -2611,19 +5442,24 @@
       <c r="F35" s="80"/>
     </row>
     <row r="36" customFormat="false" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="81"/>
-    </row>
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="82"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="38" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C38" s="82"/>
-      <c r="E38" s="83"/>
-      <c r="F38" s="83"/>
+      <c r="C38" s="83"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
     </row>
     <row r="39" customFormat="false" ht="26.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E39" s="84"/>
-      <c r="F39" s="83"/>
-    </row>
+      <c r="E39" s="85"/>
+      <c r="F39" s="84"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B11:F11"/>
@@ -2642,97 +5478,97 @@
     <mergeCell ref="B36:D36"/>
   </mergeCells>
   <dataValidations count="22">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="&#10;Cree una oferta con el cálculo de impuestos en esta hoja de cálculo. Escriba los detalles de la empresa, el cliente, el presupuesto, el envío y el producto. El total a pagar se calcula automáticamente." promptTitle="Plantilla de presupuesto" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba la dirección completa de la empresa en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el teléfono y los datos de contacto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba la fecha de finalización del presupuesto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F8" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el nombre de la persona que lo ha preparado en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F9" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el nombre del cliente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B8" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba comentarios o instrucciones especiales en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:E11 B12:B13 D13:E13" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el nombre del vendedor en la celda inferior" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B14" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba la fecha de envío en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D14" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el número de pedido de compra en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el puerto de FOB en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E14" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba la cantidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba Sí para los elementos gravables en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F17" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="El importe se calcula automáticamente en esta columna, debajo de este encabezado, el subtotal se calcula automáticamente al final de la tabla" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G17" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el precio por unidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E17" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el tipo impositivo en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E22:F22" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="El total a pagar se calcula automáticamente en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E23:F23" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba el tipo impositivo en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G22" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="El total a pagar se calcula automáticamente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G23" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba las condiciones del presupuesto en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F14:G14" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" prompt="Escriba la descripción en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17:D17" type="none">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F18 F20" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="&#10;Cree una oferta con el cálculo de impuestos en esta hoja de cálculo. Escriba los detalles de la empresa, el cliente, el presupuesto, el envío y el producto. El total a pagar se calcula automáticamente." promptTitle="Plantilla de presupuesto" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="A1" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la dirección completa de la empresa en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B3" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el teléfono y los datos de contacto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B4" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre del cliente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B6:B8" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la fecha de finalización del presupuesto en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F8" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre de la persona que lo ha preparado en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F9" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba comentarios o instrucciones especiales en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B11:E11 B12:B13 D13:E13" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el nombre del vendedor en la celda inferior" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el número de pedido de compra en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la fecha de envío en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el puerto de FOB en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba las condiciones del presupuesto en la celda siguiente" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F14:G14" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la cantidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba la descripción en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C17:D17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el precio por unidad en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba Sí para los elementos gravables en esta columna" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El importe se calcula automáticamente en esta columna, debajo de este encabezado, el subtotal se calcula automáticamente al final de la tabla" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G17" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="F18 F20" type="list">
       <formula1>"Sí,No"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el tipo impositivo en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E22:F22" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="Escriba el tipo impositivo en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G22" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El total a pagar se calcula automáticamente en la celda de la derecha" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E23:F23" type="none">
+      <formula1>0</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" prompt="El total a pagar se calcula automáticamente en esta celda" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G23" type="none">
+      <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.157638888888889" right="0.118055555555556" top="0.236111111111111" bottom="0.197222222222222" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.1" right="0.1" top="0.1" bottom="0.1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="65" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
